--- a/Assets/StreamingAssets/6_Ming_Mei.xlsx
+++ b/Assets/StreamingAssets/6_Ming_Mei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59C568-9294-D34F-95B5-A8DE4A94E7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F81CD-CA61-5A4B-883C-8413184FD774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="640" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>Mei-Sad3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mei-Sad1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,7 +662,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -736,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -765,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -782,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -799,7 +795,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -816,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -833,7 +829,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -850,7 +846,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -867,7 +863,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -884,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -897,7 +893,7 @@
         <v>500</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17">
@@ -905,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -922,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -936,7 +932,7 @@
     </row>
     <row r="13" spans="1:16" ht="51">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -947,7 +943,7 @@
     </row>
     <row r="14" spans="1:16" ht="34">
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -961,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -978,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -999,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -1016,7 +1012,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1033,10 +1029,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1050,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -1067,7 +1063,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1084,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1101,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1118,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1135,7 +1131,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1149,10 +1145,10 @@
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>14</v>

--- a/Assets/StreamingAssets/6_Ming_Mei.xlsx
+++ b/Assets/StreamingAssets/6_Ming_Mei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F81CD-CA61-5A4B-883C-8413184FD774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15C4BA-09F9-8D41-868B-2EA58B3DF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="640" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="700" yWindow="540" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -769,6 +769,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -786,6 +789,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -803,6 +809,9 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -820,6 +829,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -837,6 +849,9 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -854,6 +869,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -871,6 +889,9 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -888,6 +909,9 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
         <v>500</v>
@@ -909,6 +933,9 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -926,6 +953,9 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -937,6 +967,9 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -948,6 +981,9 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -965,6 +1001,9 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -982,6 +1021,9 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
         <v>500</v>
@@ -1003,6 +1045,9 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1020,6 +1065,9 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1037,6 +1085,9 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1054,6 +1105,9 @@
       <c r="D20" t="s">
         <v>13</v>
       </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1071,6 +1125,9 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1088,6 +1145,9 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1105,6 +1165,9 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1122,6 +1185,9 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1138,6 +1204,9 @@
       </c>
       <c r="D25" t="s">
         <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>

--- a/Assets/StreamingAssets/6_Ming_Mei.xlsx
+++ b/Assets/StreamingAssets/6_Ming_Mei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15C4BA-09F9-8D41-868B-2EA58B3DF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D994CFB0-7D58-6E47-8B65-87802FAA36CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="540" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="700" yWindow="560" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,22 +182,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Every day during the You hour, the Lord would rest and enjoy tea in the study next to the main hall until dinnertime.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Today, the Lord had a heated argument with Ming. After comforting Ming, I returned to the main hall and saw the Lord taking a nap.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Around You zheng, I suddenly felt dizzy and nauseous, so I went to the study to inform the Lord that I wouldn’t be attending the banquet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After that, I returned to my room and rested until Steward He came to inform me that something had happened to the Lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So your last encounter with the Lord was in the study?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,14 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cross-referencing with Steward He’s testimony, he last saw the Lord at the back courtyard entrance, which would have been after Mei's visit.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>His claim that Mei weren’t feeling well and that the Lord went to find the doctor is consistent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Were you resting in your bed the entire time during the banquet?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,18 +206,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I was half-asleep, and it was raining heavily outside—I didn’t hear much.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I only know that Ming came to visit me once.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>But what’s strange is… I heard someone enter without knocking. I asked who it was, and Ming said it was him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>After a while, he seemed to close the door and leave.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,15 +226,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m sorry… I truly can’t recall.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Goto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StoryScript7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(His claim that Mei weren’t feeling well and that the Lord went to find the doctor is consistent.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was bathing behind the screen at the time and didn’t hear anything unusual.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every day during 5-7 PM, the Lord would rest and enjoy tea in the study next to the main hall until dinnertime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Around 6 PM, I suddenly felt dizzy and nauseous, so I went to the study to inform the Lord that I wouldn’t be attending the banquet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After that, I returned to my room and rested until Butler He came to inform me that something had happened to the Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Cross-referencing with Butler He’s testimony, he last saw the Lord at the backyard entrance, which would have been after Mei's visit.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But what’s strange is......I heard someone enter without knocking. I asked who it was, and Ming said it was him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m sorry...... I truly can’t recall.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -836,12 +836,12 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="51">
+    <row r="7" spans="1:16" ht="34">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -861,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -901,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -912,7 +912,9 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="2">
         <v>500</v>
       </c>
@@ -925,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -945,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -962,7 +964,7 @@
     </row>
     <row r="13" spans="1:16" ht="51">
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -974,9 +976,9 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="34">
+    <row r="14" spans="1:16" ht="51">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -993,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -1013,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1024,7 +1026,9 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K16" s="2">
         <v>500</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -1057,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1077,7 +1081,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -1097,7 +1101,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -1117,7 +1121,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1137,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1157,7 +1161,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1177,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1197,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1214,10 +1218,10 @@
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>14</v>
